--- a/src/main/resources/loantxn1.xlsx
+++ b/src/main/resources/loantxn1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\Documents\Final Year Project\dataingestion\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43764CEC-8177-453D-AD63-86B9026B90EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D25812-7E59-4B1B-8B41-37A139F96E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2162E512-C31E-41EA-92EA-18B1A019FE22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,9 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B63DFA-6584-4DD3-BF0B-82FDDF2D1418}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,22 +473,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>12345</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>2345</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
         <v>151.09</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>148.91</v>
       </c>
       <c r="H2" s="1">
@@ -496,8 +498,38 @@
       <c r="I2" s="1">
         <v>45717</v>
       </c>
-      <c r="J2">
-        <v>1000</v>
+      <c r="J2" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>23456</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5432</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>151.09</v>
+      </c>
+      <c r="G3" s="2">
+        <v>148.91</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45737</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45717</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
